--- a/Spreadsheets/Ticket_Analysis.xlsx
+++ b/Spreadsheets/Ticket_Analysis.xlsx
@@ -5,22 +5,25 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/90a16b2e766745c1/Desktop/Data_Analyst_Assignment/Spreadsheets/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/90a16b2e766745c1/Desktop/Data_Analyst_Assignment/Assignment/Spreadsheets/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="64" documentId="8_{E488CB57-00D9-4565-A535-B57B16A71F88}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{70F26D42-BBE8-4C9A-B964-01C2C4C5D13D}"/>
+  <xr:revisionPtr revIDLastSave="126" documentId="8_{E488CB57-00D9-4565-A535-B57B16A71F88}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{747BAFC7-E602-4845-85BB-74895461C9B5}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="1" xr2:uid="{EFA0196A-FE60-4C11-967F-0C565484F7D6}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{EFA0196A-FE60-4C11-967F-0C565484F7D6}"/>
   </bookViews>
   <sheets>
     <sheet name="ticket " sheetId="1" r:id="rId1"/>
-    <sheet name="feedbacks" sheetId="2" r:id="rId2"/>
+    <sheet name="feedbacks " sheetId="3" r:id="rId2"/>
+    <sheet name="Pivot" sheetId="4" r:id="rId3"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">'ticket '!$A$1:$E$1</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'ticket '!$A$1:$E$3</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
+  <pivotCaches>
+    <pivotCache cacheId="5" r:id="rId4"/>
+  </pivotCaches>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -39,7 +42,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="31">
   <si>
     <t>ticket_id </t>
   </si>
@@ -105,12 +108,42 @@
   </si>
   <si>
     <t>(to be filled)</t>
+  </si>
+  <si>
+    <t>created_at</t>
+  </si>
+  <si>
+    <t>Same Day?</t>
+  </si>
+  <si>
+    <t>Same Hour?</t>
+  </si>
+  <si>
+    <t>=IFERROR( AND( INT(--TRIM([@[created_at]])) = INT(--TRIM([@[closed_at]]),</t>
+  </si>
+  <si>
+    <t xml:space="preserve">               HOUR(--TRIM([@[created_at]])) = HOUR(--TRIM([@[closed_at]])) ), FALSE )</t>
+  </si>
+  <si>
+    <t>Row Labels</t>
+  </si>
+  <si>
+    <t>Grand Total</t>
+  </si>
+  <si>
+    <t>Count of Same Day?</t>
+  </si>
+  <si>
+    <t>Count of Same Hour?</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <numFmts count="1">
+    <numFmt numFmtId="168" formatCode="[$-F800]dddd\,\ mmmm\ dd\,\ yyyy"/>
+  </numFmts>
   <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -147,7 +180,7 @@
       <family val="2"/>
     </font>
   </fonts>
-  <fills count="4">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -166,8 +199,14 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.79998168889431442"/>
+        <bgColor theme="9" tint="0.79998168889431442"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="10">
+  <borders count="11">
     <border>
       <left/>
       <right/>
@@ -286,15 +325,27 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="thin">
+        <color theme="9"/>
+      </right>
+      <top style="medium">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="thin">
+        <color theme="9"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="17">
+  <cellXfs count="26">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
@@ -308,9 +359,6 @@
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
@@ -323,77 +371,59 @@
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="168" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="168" fontId="1" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="168" fontId="2" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="168" fontId="2" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="168" fontId="1" fillId="2" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="168" fontId="2" fillId="4" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="168" fontId="4" fillId="4" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="168" fontId="1" fillId="2" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="168" fontId="0" fillId="4" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" pivotButton="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="17">
+  <dxfs count="9">
     <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="64"/>
-          <bgColor theme="0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="64"/>
-          <bgColor theme="0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="64"/>
-          <bgColor theme="0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="64"/>
-          <bgColor theme="0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="64"/>
-          <bgColor theme="0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="64"/>
-          <bgColor theme="0"/>
-        </patternFill>
-      </fill>
+      <numFmt numFmtId="168" formatCode="[$-F800]dddd\,\ mmmm\ dd\,\ yyyy"/>
     </dxf>
     <dxf>
       <font>
-        <b/>
+        <b val="0"/>
         <i val="0"/>
         <strike val="0"/>
         <condense val="0"/>
@@ -408,13 +438,8 @@
         <family val="2"/>
         <scheme val="none"/>
       </font>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor theme="4"/>
-          <bgColor theme="4"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <numFmt numFmtId="168" formatCode="[$-F800]dddd\,\ mmmm\ dd\,\ yyyy"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
       <border diagonalUp="0" diagonalDown="0" outline="0">
         <left style="medium">
           <color rgb="FF000000"/>
@@ -422,8 +447,46 @@
         <right style="medium">
           <color rgb="FF000000"/>
         </right>
-        <top/>
-        <bottom/>
+        <top style="medium">
+          <color rgb="FF000000"/>
+        </top>
+        <bottom style="medium">
+          <color rgb="FF000000"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="9.9499999999999993"/>
+        <color rgb="FF000000"/>
+        <name val="Arial"/>
+        <family val="2"/>
+        <scheme val="none"/>
+      </font>
+      <numFmt numFmtId="168" formatCode="[$-F800]dddd\,\ mmmm\ dd\,\ yyyy"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="medium">
+          <color rgb="FF000000"/>
+        </left>
+        <right style="medium">
+          <color rgb="FF000000"/>
+        </right>
+        <top style="medium">
+          <color rgb="FF000000"/>
+        </top>
+        <bottom style="medium">
+          <color rgb="FF000000"/>
+        </bottom>
       </border>
     </dxf>
     <dxf>
@@ -478,76 +541,6 @@
         <family val="2"/>
         <scheme val="none"/>
       </font>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="medium">
-          <color rgb="FF000000"/>
-        </left>
-        <right style="medium">
-          <color rgb="FF000000"/>
-        </right>
-        <top style="medium">
-          <color rgb="FF000000"/>
-        </top>
-        <bottom style="medium">
-          <color rgb="FF000000"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="9.9499999999999993"/>
-        <color rgb="FF000000"/>
-        <name val="Arial"/>
-        <family val="2"/>
-        <scheme val="none"/>
-      </font>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="medium">
-          <color rgb="FF000000"/>
-        </left>
-        <right style="medium">
-          <color rgb="FF000000"/>
-        </right>
-        <top style="medium">
-          <color rgb="FF000000"/>
-        </top>
-        <bottom style="medium">
-          <color rgb="FF000000"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="9.9499999999999993"/>
-        <color rgb="FF000000"/>
-        <name val="Arial"/>
-        <family val="2"/>
-        <scheme val="none"/>
-      </font>
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
       <border diagonalUp="0" diagonalDown="0">
         <left/>
@@ -573,6 +566,15 @@
     </dxf>
     <dxf>
       <border outline="0">
+        <left style="medium">
+          <color rgb="FF000000"/>
+        </left>
+        <right style="medium">
+          <color rgb="FF000000"/>
+        </right>
+        <top style="medium">
+          <color rgb="FF000000"/>
+        </top>
         <bottom style="medium">
           <color rgb="FF000000"/>
         </bottom>
@@ -580,15 +582,6 @@
     </dxf>
     <dxf>
       <border outline="0">
-        <left style="medium">
-          <color rgb="FF000000"/>
-        </left>
-        <right style="medium">
-          <color rgb="FF000000"/>
-        </right>
-        <top style="medium">
-          <color rgb="FF000000"/>
-        </top>
         <bottom style="medium">
           <color rgb="FF000000"/>
         </bottom>
@@ -611,6 +604,12 @@
         <family val="2"/>
         <scheme val="none"/>
       </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor theme="4"/>
+          <bgColor theme="4"/>
+        </patternFill>
+      </fill>
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
       <border diagonalUp="0" diagonalDown="0" outline="0">
         <left style="medium">
@@ -621,20 +620,6 @@
         </right>
         <top/>
         <bottom/>
-      </border>
-    </dxf>
-    <dxf>
-      <border outline="0">
-        <bottom style="medium">
-          <color rgb="FF000000"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <border outline="0">
-        <top style="medium">
-          <color rgb="FF000000"/>
-        </top>
       </border>
     </dxf>
   </dxfs>
@@ -650,31 +635,160 @@
 </styleSheet>
 </file>
 
-<file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="5" xr:uid="{4D82785F-937B-4E6F-99D3-F14AB026F762}" name="ticket" displayName="ticket" ref="A1:E3" totalsRowShown="0" headerRowDxfId="6" headerRowBorderDxfId="12" tableBorderDxfId="13" totalsRowBorderDxfId="11">
-  <autoFilter ref="A1:E3" xr:uid="{4D82785F-937B-4E6F-99D3-F14AB026F762}"/>
-  <tableColumns count="5">
-    <tableColumn id="1" xr3:uid="{3E9CCD13-DC30-4774-A7FF-CC6C2FB6BB0B}" name="ticket_id " dataDxfId="10"/>
-    <tableColumn id="2" xr3:uid="{91E004DE-83BD-4317-B387-D5F2DA1F03C4}" name="created_at " dataDxfId="9"/>
-    <tableColumn id="3" xr3:uid="{80B4509E-8BD0-42AA-A72D-7727D4974C12}" name="closed_at " dataDxfId="8"/>
-    <tableColumn id="4" xr3:uid="{0B0598C2-6254-4A79-BFE1-6FD2D981F15C}" name="outlet_id " dataDxfId="7"/>
-    <tableColumn id="5" xr3:uid="{0A5D83B4-7966-46EF-8643-4855B4554154}" name="cms_id"/>
-  </tableColumns>
-  <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
-</table>
+<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
+<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
-<file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{798EF86F-DD61-4FE3-81FE-70F0D6CA2097}" name="feedbacks" displayName="feedbacks" ref="A1:E2" totalsRowShown="0" headerRowDxfId="14" dataDxfId="0" headerRowBorderDxfId="15" tableBorderDxfId="16">
-  <autoFilter ref="A1:E2" xr:uid="{798EF86F-DD61-4FE3-81FE-70F0D6CA2097}"/>
-  <tableColumns count="5">
-    <tableColumn id="1" xr3:uid="{D966D4A4-A006-4D35-B276-791326D3ED8A}" name="cms_id " dataDxfId="5"/>
-    <tableColumn id="2" xr3:uid="{5A98333D-001E-43A3-B4F6-93BF79DFDE3B}" name="feedback_at " dataDxfId="4"/>
-    <tableColumn id="3" xr3:uid="{C60FE609-C7D1-461A-A13A-FD9A3A2EC31E}" name="feedback_rating " dataDxfId="3"/>
-    <tableColumn id="4" xr3:uid="{1DDEE416-077A-43CD-8E47-090FD6ECFF42}" name="ticket_created_at" dataDxfId="2"/>
-    <tableColumn id="6" xr3:uid="{A95904B0-8775-4ADD-8075-DA28662F1271}" name="created_at " dataDxfId="1">
-      <calculatedColumnFormula>_xlfn.XLOOKUP(feedbacks[[#This Row],[cms_id ]],ticket[cms_id],ticket[created_at ])</calculatedColumnFormula>
+<file path=xl/pivotCache/pivotCacheDefinition1.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" r:id="rId1" refreshedBy="prana" refreshedDate="45994.397687500001" createdVersion="8" refreshedVersion="8" minRefreshableVersion="3" recordCount="2" xr:uid="{75E84F94-BA92-489C-9460-1562BBE9F482}">
+  <cacheSource type="worksheet">
+    <worksheetSource name="ticket"/>
+  </cacheSource>
+  <cacheFields count="7">
+    <cacheField name="ticket_id " numFmtId="0">
+      <sharedItems/>
+    </cacheField>
+    <cacheField name="created_at " numFmtId="168">
+      <sharedItems/>
+    </cacheField>
+    <cacheField name="closed_at " numFmtId="168">
+      <sharedItems/>
+    </cacheField>
+    <cacheField name="outlet_id " numFmtId="0">
+      <sharedItems count="2">
+        <s v="wrqy-juv-978 "/>
+        <s v="8woh-k3u-23b"/>
+      </sharedItems>
+    </cacheField>
+    <cacheField name="cms_id" numFmtId="0">
+      <sharedItems containsBlank="1" count="2">
+        <s v="vew-iuvd-12"/>
+        <m/>
+      </sharedItems>
+    </cacheField>
+    <cacheField name="Same Day?" numFmtId="168">
+      <sharedItems count="1">
+        <b v="0"/>
+      </sharedItems>
+    </cacheField>
+    <cacheField name="Same Hour?" numFmtId="0">
+      <sharedItems/>
+    </cacheField>
+  </cacheFields>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{725AE2AE-9491-48be-B2B4-4EB974FC3084}">
+      <x14:pivotCacheDefinition pivotCacheId="1738776963"/>
+    </ext>
+  </extLst>
+</pivotCacheDefinition>
+</file>
+
+<file path=xl/pivotCache/pivotCacheRecords1.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotCacheRecords xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" count="2">
+  <r>
+    <s v="isu-sjd-457 "/>
+    <s v="2021-08-19 16:45:43 "/>
+    <s v="2021-08-22 12:33:32 "/>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="0"/>
+    <s v="=IFERROR( AND( INT(--TRIM([@[created_at]])) = INT(--TRIM([@[closed_at]]),"/>
+  </r>
+  <r>
+    <s v="qer-fal-092 "/>
+    <s v="2021-08-21 11:09:22 "/>
+    <s v="2021-08-21 17:13:45 "/>
+    <x v="1"/>
+    <x v="1"/>
+    <x v="0"/>
+    <s v="               HOUR(--TRIM([@[created_at]])) = HOUR(--TRIM([@[closed_at]])) ), FALSE )"/>
+  </r>
+</pivotCacheRecords>
+</file>
+
+<file path=xl/pivotTables/pivotTable1.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{D416FB50-430B-4D93-9C68-3331D538E6BE}" name="PivotTable1" cacheId="5" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
+  <location ref="A3:C6" firstHeaderRow="0" firstDataRow="1" firstDataCol="1"/>
+  <pivotFields count="7">
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField axis="axisRow" showAll="0">
+      <items count="3">
+        <item x="1"/>
+        <item x="0"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField showAll="0">
+      <items count="3">
+        <item x="0"/>
+        <item x="1"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField dataField="1" showAll="0">
+      <items count="2">
+        <item x="0"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField dataField="1" showAll="0"/>
+  </pivotFields>
+  <rowFields count="1">
+    <field x="3"/>
+  </rowFields>
+  <rowItems count="3">
+    <i>
+      <x/>
+    </i>
+    <i>
+      <x v="1"/>
+    </i>
+    <i t="grand">
+      <x/>
+    </i>
+  </rowItems>
+  <colFields count="1">
+    <field x="-2"/>
+  </colFields>
+  <colItems count="2">
+    <i>
+      <x/>
+    </i>
+    <i i="1">
+      <x v="1"/>
+    </i>
+  </colItems>
+  <dataFields count="2">
+    <dataField name="Count of Same Day?" fld="5" subtotal="count" baseField="0" baseItem="0"/>
+    <dataField name="Count of Same Hour?" fld="6" subtotal="count" baseField="0" baseItem="0"/>
+  </dataFields>
+  <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
+      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" hideValuesRow="1"/>
+    </ext>
+    <ext xmlns:xpdl="http://schemas.microsoft.com/office/spreadsheetml/2016/pivotdefaultlayout" uri="{747A6164-185A-40DC-8AA5-F01512510D54}">
+      <xpdl:pivotTableDefinition16/>
+    </ext>
+  </extLst>
+</pivotTableDefinition>
+</file>
+
+<file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="5" xr:uid="{4D82785F-937B-4E6F-99D3-F14AB026F762}" name="ticket" displayName="ticket" ref="A1:G3" totalsRowShown="0" headerRowDxfId="8" headerRowBorderDxfId="7" tableBorderDxfId="6" totalsRowBorderDxfId="5">
+  <autoFilter ref="A1:G3" xr:uid="{4D82785F-937B-4E6F-99D3-F14AB026F762}"/>
+  <tableColumns count="7">
+    <tableColumn id="1" xr3:uid="{3E9CCD13-DC30-4774-A7FF-CC6C2FB6BB0B}" name="ticket_id " dataDxfId="4"/>
+    <tableColumn id="2" xr3:uid="{91E004DE-83BD-4317-B387-D5F2DA1F03C4}" name="created_at " dataDxfId="2"/>
+    <tableColumn id="3" xr3:uid="{80B4509E-8BD0-42AA-A72D-7727D4974C12}" name="closed_at " dataDxfId="1"/>
+    <tableColumn id="4" xr3:uid="{0B0598C2-6254-4A79-BFE1-6FD2D981F15C}" name="outlet_id " dataDxfId="3"/>
+    <tableColumn id="5" xr3:uid="{0A5D83B4-7966-46EF-8643-4855B4554154}" name="cms_id"/>
+    <tableColumn id="6" xr3:uid="{6515C372-A1AA-4CED-8ABD-71FBAE8D5926}" name="Same Day?" dataDxfId="0">
+      <calculatedColumnFormula>IFERROR( INT(--TRIM(ticket[[#This Row],[created_at ]])) = INT(--TRIM(ticket[[#This Row],[closed_at ]])), FALSE )</calculatedColumnFormula>
     </tableColumn>
+    <tableColumn id="7" xr3:uid="{ED0FD8DD-A7DB-4B47-AC13-8BEF301EBBD7}" name="Same Hour?"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -977,69 +1091,91 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0B4E0D8E-A9DB-4642-9539-2FC89A3DC48F}">
-  <dimension ref="A1:E3"/>
+  <dimension ref="A1:G3"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E6" sqref="E6"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G2" sqref="G2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="30.44140625" customWidth="1"/>
-    <col min="2" max="2" width="28.88671875" customWidth="1"/>
-    <col min="3" max="3" width="31.21875" customWidth="1"/>
+    <col min="2" max="2" width="28.88671875" style="14" customWidth="1"/>
+    <col min="3" max="3" width="31.21875" style="14" customWidth="1"/>
     <col min="4" max="4" width="24.6640625" customWidth="1"/>
     <col min="5" max="5" width="35.44140625" customWidth="1"/>
+    <col min="6" max="6" width="22.6640625" customWidth="1"/>
+    <col min="7" max="7" width="19.5546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="3" t="s">
+    <row r="1" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="B1" s="15" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="C1" s="15" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="2" t="s">
+      <c r="D1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="4" t="s">
+      <c r="E1" s="3" t="s">
         <v>4</v>
       </c>
+      <c r="F1" s="13" t="s">
+        <v>23</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>24</v>
+      </c>
     </row>
-    <row r="2" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A2" s="10" t="s">
+    <row r="2" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A2" s="8" t="s">
         <v>9</v>
       </c>
-      <c r="B2" s="11" t="s">
+      <c r="B2" s="16" t="s">
         <v>10</v>
       </c>
-      <c r="C2" s="11" t="s">
+      <c r="C2" s="16" t="s">
         <v>11</v>
       </c>
-      <c r="D2" s="12" t="s">
+      <c r="D2" s="9" t="s">
         <v>12</v>
       </c>
-      <c r="E2" s="9" t="s">
+      <c r="E2" s="7" t="s">
         <v>13</v>
       </c>
+      <c r="F2" s="14" t="b">
+        <f>IFERROR( INT(--TRIM(ticket[[#This Row],[created_at ]])) = INT(--TRIM(ticket[[#This Row],[closed_at ]])), FALSE )</f>
+        <v>0</v>
+      </c>
+      <c r="G2" t="s">
+        <v>25</v>
+      </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A3" s="5" t="s">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A3" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="B3" s="6" t="s">
+      <c r="B3" s="17" t="s">
         <v>15</v>
       </c>
-      <c r="C3" s="6" t="s">
+      <c r="C3" s="17" t="s">
         <v>16</v>
       </c>
-      <c r="D3" s="7" t="s">
+      <c r="D3" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="E3" s="8"/>
+      <c r="E3" s="6"/>
+      <c r="F3" s="14" t="b">
+        <f>IFERROR( INT(--TRIM(ticket[[#This Row],[created_at ]])) = INT(--TRIM(ticket[[#This Row],[closed_at ]])), FALSE )</f>
+        <v>0</v>
+      </c>
+      <c r="G3" t="s">
+        <v>26</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1050,61 +1186,122 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9B40150B-68D9-4778-8D7C-FCC34AA2B937}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1CEAD81B-FCFD-4C0F-A8B4-AC9CCC35467E}">
   <dimension ref="A1:E2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E5" sqref="E5"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B25" sqref="B25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="22.6640625" customWidth="1"/>
-    <col min="2" max="2" width="26.88671875" customWidth="1"/>
-    <col min="3" max="3" width="23.77734375" customWidth="1"/>
-    <col min="4" max="4" width="22.77734375" customWidth="1"/>
-    <col min="5" max="5" width="27.44140625" customWidth="1"/>
+    <col min="1" max="1" width="27.21875" customWidth="1"/>
+    <col min="2" max="2" width="22.77734375" style="14" customWidth="1"/>
+    <col min="3" max="3" width="22" customWidth="1"/>
+    <col min="4" max="4" width="17.88671875" style="14" customWidth="1"/>
+    <col min="5" max="5" width="17.33203125" style="14" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="25.8" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="1" t="s">
+    <row r="1" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A1" s="12" t="s">
         <v>5</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" s="18" t="s">
         <v>6</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="C1" s="12" t="s">
         <v>7</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="D1" s="18" t="s">
         <v>8</v>
       </c>
-      <c r="E1" s="2" t="s">
-        <v>1</v>
+      <c r="E1" s="21" t="s">
+        <v>22</v>
       </c>
     </row>
     <row r="2" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A2" s="13" t="s">
+      <c r="A2" s="10" t="s">
         <v>18</v>
       </c>
-      <c r="B2" s="11" t="s">
+      <c r="B2" s="19" t="s">
         <v>19</v>
       </c>
-      <c r="C2" s="14" t="s">
+      <c r="C2" s="11" t="s">
         <v>20</v>
       </c>
-      <c r="D2" s="15" t="s">
+      <c r="D2" s="20" t="s">
         <v>21</v>
       </c>
-      <c r="E2" s="16" t="e">
-        <f>_xlfn.XLOOKUP(feedbacks[[#This Row],[cms_id ]],ticket[cms_id],ticket[created_at ])</f>
+      <c r="E2" s="22" t="e">
+        <f>VLOOKUP(A2, ticket[], 2, FALSE)</f>
         <v>#N/A</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <tableParts count="1">
-    <tablePart r:id="rId1"/>
-  </tableParts>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{24A6F611-4991-4F4C-9D87-6753DBD9D23F}">
+  <dimension ref="A3:C6"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B5" sqref="B5"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="12.77734375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="18.21875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="19.109375" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A3" s="23" t="s">
+        <v>27</v>
+      </c>
+      <c r="B3" t="s">
+        <v>29</v>
+      </c>
+      <c r="C3" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A4" s="24" t="s">
+        <v>17</v>
+      </c>
+      <c r="B4" s="25">
+        <v>1</v>
+      </c>
+      <c r="C4" s="25">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A5" s="24" t="s">
+        <v>12</v>
+      </c>
+      <c r="B5" s="25">
+        <v>1</v>
+      </c>
+      <c r="C5" s="25">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A6" s="24" t="s">
+        <v>28</v>
+      </c>
+      <c r="B6" s="25">
+        <v>2</v>
+      </c>
+      <c r="C6" s="25">
+        <v>2</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>